--- a/women_state_legislatures.xlsx
+++ b/women_state_legislatures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcewi\Documents\Coursework\Winter 2019\CompThinking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcewi\Documents\GitHub\WomenLeaders599\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>State</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t> 15.6%</t>
   </si>
   <si>
     <t>State Abbreviation</t>
@@ -534,13 +531,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -825,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -839,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -861,8 +858,8 @@
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>59</v>
+      <c r="B2" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>15</v>
@@ -884,8 +881,8 @@
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>70</v>
+      <c r="B3" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -907,8 +904,8 @@
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>71</v>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="4">
         <v>19</v>
@@ -930,8 +927,8 @@
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>60</v>
+      <c r="B5" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>17</v>
@@ -953,8 +950,8 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>61</v>
+      <c r="B6" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -976,8 +973,8 @@
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>62</v>
+      <c r="B7" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="2">
         <v>28</v>
@@ -999,8 +996,8 @@
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>72</v>
+      <c r="B8" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="1">
         <v>45</v>
@@ -1022,8 +1019,8 @@
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>63</v>
+      <c r="B9" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="3">
         <v>10</v>
@@ -1045,8 +1042,8 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>64</v>
+      <c r="B10" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="1">
         <v>29</v>
@@ -1068,8 +1065,8 @@
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>74</v>
+      <c r="B11" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="C11" s="2">
         <v>45</v>
@@ -1091,8 +1088,8 @@
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>75</v>
+      <c r="B12" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="1">
         <v>16</v>
@@ -1114,8 +1111,8 @@
       <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>65</v>
+      <c r="B13" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="3">
         <v>22</v>
@@ -1137,8 +1134,8 @@
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>66</v>
+      <c r="B14" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="1">
         <v>40</v>
@@ -1160,8 +1157,8 @@
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>67</v>
+      <c r="B15" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <v>22</v>
@@ -1183,8 +1180,8 @@
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>73</v>
+      <c r="B16" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="1">
         <v>25</v>
@@ -1206,8 +1203,8 @@
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>76</v>
+      <c r="B17" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C17" s="2">
         <v>29</v>
@@ -1229,8 +1226,8 @@
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>77</v>
+      <c r="B18" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="4">
         <v>19</v>
@@ -1252,8 +1249,8 @@
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>78</v>
+      <c r="B19" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C19" s="2">
         <v>14</v>
@@ -1275,8 +1272,8 @@
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>79</v>
+      <c r="B20" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="1">
         <v>47</v>
@@ -1298,8 +1295,8 @@
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>80</v>
+      <c r="B21" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="2">
         <v>46</v>
@@ -1321,8 +1318,8 @@
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>68</v>
+      <c r="B22" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="1">
         <v>37</v>
@@ -1344,8 +1341,8 @@
       <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>69</v>
+      <c r="B23" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="2">
         <v>24</v>
@@ -1367,8 +1364,8 @@
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>82</v>
+      <c r="B24" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C24" s="1">
         <v>45</v>
@@ -1390,8 +1387,8 @@
       <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>81</v>
+      <c r="B25" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="2">
         <v>22</v>
@@ -1413,8 +1410,8 @@
       <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>84</v>
+      <c r="B26" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C26" s="4">
         <v>38</v>
@@ -1436,8 +1433,8 @@
       <c r="A27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>83</v>
+      <c r="B27" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="2">
         <v>30</v>
@@ -1459,8 +1456,8 @@
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>85</v>
+      <c r="B28" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
@@ -1482,8 +1479,8 @@
       <c r="A29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>86</v>
+      <c r="B29" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="2">
         <v>13</v>
@@ -1505,8 +1502,8 @@
       <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>87</v>
+      <c r="B30" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="1">
         <v>128</v>
@@ -1528,8 +1525,8 @@
       <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>88</v>
+      <c r="B31" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C31" s="2">
         <v>26</v>
@@ -1551,8 +1548,8 @@
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>89</v>
+      <c r="B32" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C32" s="1">
         <v>26</v>
@@ -1574,8 +1571,8 @@
       <c r="A33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>90</v>
+      <c r="B33" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C33" s="2">
         <v>34</v>
@@ -1597,8 +1594,8 @@
       <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>91</v>
+      <c r="B34" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C34" s="1">
         <v>28</v>
@@ -1620,8 +1617,8 @@
       <c r="A35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>92</v>
+      <c r="B35" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C35" s="2">
         <v>16</v>
@@ -1643,8 +1640,8 @@
       <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>93</v>
+      <c r="B36" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="C36" s="1">
         <v>23</v>
@@ -1666,8 +1663,8 @@
       <c r="A37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>94</v>
+      <c r="B37" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C37" s="2">
         <v>16</v>
@@ -1689,8 +1686,8 @@
       <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>95</v>
+      <c r="B38" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="C38" s="1">
         <v>20</v>
@@ -1712,8 +1709,8 @@
       <c r="A39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>96</v>
+      <c r="B39" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="C39" s="2">
         <v>37</v>
@@ -1735,8 +1732,8 @@
       <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>97</v>
+      <c r="B40" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C40" s="1">
         <v>21</v>
@@ -1758,8 +1755,8 @@
       <c r="A41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>98</v>
+      <c r="B41" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C41" s="2">
         <v>21</v>
@@ -1781,8 +1778,8 @@
       <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>99</v>
+      <c r="B42" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="C42" s="1">
         <v>18</v>
@@ -1804,8 +1801,8 @@
       <c r="A43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>100</v>
+      <c r="B43" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C43" s="2">
         <v>16</v>
@@ -1827,8 +1824,8 @@
       <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>101</v>
+      <c r="B44" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C44" s="1">
         <v>32</v>
@@ -1850,8 +1847,8 @@
       <c r="A45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>102</v>
+      <c r="B45" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C45" s="2">
         <v>12</v>
@@ -1873,8 +1870,8 @@
       <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>103</v>
+      <c r="B46" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C46" s="1">
         <v>65</v>
@@ -1896,8 +1893,8 @@
       <c r="A47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>104</v>
+      <c r="B47" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C47" s="2">
         <v>17</v>
@@ -1919,8 +1916,8 @@
       <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>105</v>
+      <c r="B48" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="C48" s="1">
         <v>30</v>
@@ -1942,8 +1939,8 @@
       <c r="A49" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>106</v>
+      <c r="B49" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C49" s="2">
         <v>21</v>
@@ -1965,8 +1962,8 @@
       <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>107</v>
+      <c r="B50" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="C50" s="1">
         <v>25</v>
@@ -1989,7 +1986,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="14">
         <v>12</v>
@@ -2003,8 +2000,8 @@
       <c r="F51" s="14">
         <v>90</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>57</v>
+      <c r="G51" s="17">
+        <v>0.156</v>
       </c>
     </row>
   </sheetData>
